--- a/misc/misc.personal.income.tax/report/report.xlsx
+++ b/misc/misc.personal.income.tax/report/report.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziv/repo/git.repo/github/ziv/misc/misc.personal.income.tax/report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="17235" windowHeight="8280" tabRatio="510"/>
+    <workbookView xWindow="1080" yWindow="440" windowWidth="32520" windowHeight="20560" tabRatio="510" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2016年税额" sheetId="1" r:id="rId1"/>
+    <sheet name="2018年公布的个人综合税率" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>缴税基数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,42 +35,202 @@
     <t>税额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>级数</t>
+    <rPh sb="0" eb="1">
+      <t>ji shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <rPh sb="0" eb="1">
+      <t>shui lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年-低值</t>
+    <rPh sb="0" eb="1">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年-高值</t>
+    <rPh sb="0" eb="1">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gao zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月-低值</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月-高值</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年-可读</t>
+    <rPh sb="0" eb="1">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月-可读</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年-级差</t>
+    <rPh sb="0" eb="1">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月-级差</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cha zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高税额</t>
+    <rPh sb="0" eb="1">
+      <t>zui gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shui e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计税额</t>
+    <rPh sb="0" eb="1">
+      <t>lei ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shui e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ &quot;万&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -69,8 +239,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -116,7 +331,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'2016年税额'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -127,612 +342,612 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$100</c:f>
+              <c:f>'2016年税额'!$A$2:$A$100</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0_ </c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>7000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000</c:v>
+                  <c:v>9000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000</c:v>
+                  <c:v>11000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000</c:v>
+                  <c:v>13000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000</c:v>
+                  <c:v>15000.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000</c:v>
+                  <c:v>17000.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000</c:v>
+                  <c:v>18000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19000</c:v>
+                  <c:v>19000.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20000</c:v>
+                  <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000</c:v>
+                  <c:v>21000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22000</c:v>
+                  <c:v>22000.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23000</c:v>
+                  <c:v>23000.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24000</c:v>
+                  <c:v>24000.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25000</c:v>
+                  <c:v>25000.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26000</c:v>
+                  <c:v>26000.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27000</c:v>
+                  <c:v>27000.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28000</c:v>
+                  <c:v>28000.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29000</c:v>
+                  <c:v>29000.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31000</c:v>
+                  <c:v>31000.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33000</c:v>
+                  <c:v>33000.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34000</c:v>
+                  <c:v>34000.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35000</c:v>
+                  <c:v>35000.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36000</c:v>
+                  <c:v>36000.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37000</c:v>
+                  <c:v>37000.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38000</c:v>
+                  <c:v>38000.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39000</c:v>
+                  <c:v>39000.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40000</c:v>
+                  <c:v>40000.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41000</c:v>
+                  <c:v>41000.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42000</c:v>
+                  <c:v>42000.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43000</c:v>
+                  <c:v>43000.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44000</c:v>
+                  <c:v>44000.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45000</c:v>
+                  <c:v>45000.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46000</c:v>
+                  <c:v>46000.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47000</c:v>
+                  <c:v>47000.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48000</c:v>
+                  <c:v>48000.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49000</c:v>
+                  <c:v>49000.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50000</c:v>
+                  <c:v>50000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51000</c:v>
+                  <c:v>51000.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52000</c:v>
+                  <c:v>52000.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53000</c:v>
+                  <c:v>53000.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54000</c:v>
+                  <c:v>54000.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55000</c:v>
+                  <c:v>55000.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56000</c:v>
+                  <c:v>56000.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57000</c:v>
+                  <c:v>57000.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58000</c:v>
+                  <c:v>58000.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59000</c:v>
+                  <c:v>59000.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61000</c:v>
+                  <c:v>61000.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62000</c:v>
+                  <c:v>62000.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63000</c:v>
+                  <c:v>63000.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65000</c:v>
+                  <c:v>65000.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66000</c:v>
+                  <c:v>66000.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67000</c:v>
+                  <c:v>67000.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68000</c:v>
+                  <c:v>68000.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69000</c:v>
+                  <c:v>69000.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70000</c:v>
+                  <c:v>70000.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71000</c:v>
+                  <c:v>71000.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72000</c:v>
+                  <c:v>72000.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73000</c:v>
+                  <c:v>73000.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74000</c:v>
+                  <c:v>74000.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75000</c:v>
+                  <c:v>75000.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76000</c:v>
+                  <c:v>76000.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77000</c:v>
+                  <c:v>77000.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78000</c:v>
+                  <c:v>78000.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79000</c:v>
+                  <c:v>79000.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81000</c:v>
+                  <c:v>81000.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82000</c:v>
+                  <c:v>82000.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83000</c:v>
+                  <c:v>83000.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84000</c:v>
+                  <c:v>84000.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85000</c:v>
+                  <c:v>85000.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86000</c:v>
+                  <c:v>86000.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87000</c:v>
+                  <c:v>87000.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88000</c:v>
+                  <c:v>88000.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89000</c:v>
+                  <c:v>89000.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90000</c:v>
+                  <c:v>90000.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91000</c:v>
+                  <c:v>91000.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92000</c:v>
+                  <c:v>92000.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93000</c:v>
+                  <c:v>93000.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94000</c:v>
+                  <c:v>94000.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95000</c:v>
+                  <c:v>95000.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96000</c:v>
+                  <c:v>96000.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>97000</c:v>
+                  <c:v>97000.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>98000</c:v>
+                  <c:v>98000.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>99000</c:v>
+                  <c:v>99000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$100</c:f>
+              <c:f>'2016年税额'!$B$2:$B$100</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0_ </c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>145</c:v>
+                  <c:v>145.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>345</c:v>
+                  <c:v>345.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>545</c:v>
+                  <c:v>545.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>745</c:v>
+                  <c:v>745.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>945</c:v>
+                  <c:v>945.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1145</c:v>
+                  <c:v>1145.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1370</c:v>
+                  <c:v>1370.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1620</c:v>
+                  <c:v>1620.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1870</c:v>
+                  <c:v>1870.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2120</c:v>
+                  <c:v>2120.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2370</c:v>
+                  <c:v>2370.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2620</c:v>
+                  <c:v>2620.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2870</c:v>
+                  <c:v>2870.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3120</c:v>
+                  <c:v>3120.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3370</c:v>
+                  <c:v>3370.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3620</c:v>
+                  <c:v>3620.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3870</c:v>
+                  <c:v>3870.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4120</c:v>
+                  <c:v>4120.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4370</c:v>
+                  <c:v>4370.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4620</c:v>
+                  <c:v>4620.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4870</c:v>
+                  <c:v>4870.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5120</c:v>
+                  <c:v>5120.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5370</c:v>
+                  <c:v>5370.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5620</c:v>
+                  <c:v>5620.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5870</c:v>
+                  <c:v>5870.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6120</c:v>
+                  <c:v>6120.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6370</c:v>
+                  <c:v>6370.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6620</c:v>
+                  <c:v>6620.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6870</c:v>
+                  <c:v>6870.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7120</c:v>
+                  <c:v>7120.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7370</c:v>
+                  <c:v>7370.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7620</c:v>
+                  <c:v>7620.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7895</c:v>
+                  <c:v>7895.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8195</c:v>
+                  <c:v>8195.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8495</c:v>
+                  <c:v>8495.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8795</c:v>
+                  <c:v>8795.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9095</c:v>
+                  <c:v>9095.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9395</c:v>
+                  <c:v>9395.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9695</c:v>
+                  <c:v>9695.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9995</c:v>
+                  <c:v>9995.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10295</c:v>
+                  <c:v>10295.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10595</c:v>
+                  <c:v>10595.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10895</c:v>
+                  <c:v>10895.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11195</c:v>
+                  <c:v>11195.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11495</c:v>
+                  <c:v>11495.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11795</c:v>
+                  <c:v>11795.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12095</c:v>
+                  <c:v>12095.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12395</c:v>
+                  <c:v>12395.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12695</c:v>
+                  <c:v>12695.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12995</c:v>
+                  <c:v>12995.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13295</c:v>
+                  <c:v>13295.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>13595</c:v>
+                  <c:v>13595.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13920</c:v>
+                  <c:v>13920.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>14270</c:v>
+                  <c:v>14270.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14620</c:v>
+                  <c:v>14620.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14970</c:v>
+                  <c:v>14970.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15320</c:v>
+                  <c:v>15320.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>15670</c:v>
+                  <c:v>15670.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>16020</c:v>
+                  <c:v>16020.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16370</c:v>
+                  <c:v>16370.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16720</c:v>
+                  <c:v>16720.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17070</c:v>
+                  <c:v>17070.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>17420</c:v>
+                  <c:v>17420.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>17770</c:v>
+                  <c:v>17770.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18120</c:v>
+                  <c:v>18120.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>18470</c:v>
+                  <c:v>18470.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18820</c:v>
+                  <c:v>18820.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>19170</c:v>
+                  <c:v>19170.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>19520</c:v>
+                  <c:v>19520.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>19870</c:v>
+                  <c:v>19870.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>20220</c:v>
+                  <c:v>20220.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>20570</c:v>
+                  <c:v>20570.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>20920</c:v>
+                  <c:v>20920.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>21270</c:v>
+                  <c:v>21270.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21620</c:v>
+                  <c:v>21620.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21970</c:v>
+                  <c:v>21970.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>22320</c:v>
+                  <c:v>22320.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>22720</c:v>
+                  <c:v>22720.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>23170</c:v>
+                  <c:v>23170.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>23620</c:v>
+                  <c:v>23620.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>24070</c:v>
+                  <c:v>24070.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>24520</c:v>
+                  <c:v>24520.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>24970</c:v>
+                  <c:v>24970.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>25420</c:v>
+                  <c:v>25420.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>25870</c:v>
+                  <c:v>25870.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>26320</c:v>
+                  <c:v>26320.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>26770</c:v>
+                  <c:v>26770.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>27220</c:v>
+                  <c:v>27220.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27670</c:v>
+                  <c:v>27670.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28120</c:v>
+                  <c:v>28120.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>28570</c:v>
+                  <c:v>28570.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>29020</c:v>
+                  <c:v>29020.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>29470</c:v>
+                  <c:v>29470.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,21 +964,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88127744"/>
-        <c:axId val="88133632"/>
+        <c:axId val="1794943264"/>
+        <c:axId val="1811371344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88127744"/>
+        <c:axId val="1794943264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88133632"/>
+        <c:crossAx val="1811371344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -771,18 +986,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88133632"/>
+        <c:axId val="1811371344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88127744"/>
+        <c:crossAx val="1794943264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -833,7 +1048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'2016年税额'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -842,200 +1057,223 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>'2016年税额'!$A$2:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0_ </c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>7000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000</c:v>
+                  <c:v>9000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000</c:v>
+                  <c:v>11000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000</c:v>
+                  <c:v>13000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000</c:v>
+                  <c:v>15000.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000</c:v>
+                  <c:v>17000.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000</c:v>
+                  <c:v>18000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19000</c:v>
+                  <c:v>19000.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20000</c:v>
+                  <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000</c:v>
+                  <c:v>21000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22000</c:v>
+                  <c:v>22000.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23000</c:v>
+                  <c:v>23000.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24000</c:v>
+                  <c:v>24000.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25000</c:v>
+                  <c:v>25000.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26000</c:v>
+                  <c:v>26000.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27000</c:v>
+                  <c:v>27000.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28000</c:v>
+                  <c:v>28000.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29000</c:v>
+                  <c:v>29000.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>'2016年税额'!$B$2:$B$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0_ </c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>145</c:v>
+                  <c:v>145.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>345</c:v>
+                  <c:v>345.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>545</c:v>
+                  <c:v>545.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>745</c:v>
+                  <c:v>745.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>945</c:v>
+                  <c:v>945.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1145</c:v>
+                  <c:v>1145.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1370</c:v>
+                  <c:v>1370.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1620</c:v>
+                  <c:v>1620.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1870</c:v>
+                  <c:v>1870.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2120</c:v>
+                  <c:v>2120.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2370</c:v>
+                  <c:v>2370.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2620</c:v>
+                  <c:v>2620.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2870</c:v>
+                  <c:v>2870.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3120</c:v>
+                  <c:v>3120.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3370</c:v>
+                  <c:v>3370.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3620</c:v>
+                  <c:v>3620.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3870</c:v>
+                  <c:v>3870.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4120</c:v>
+                  <c:v>4120.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4370</c:v>
+                  <c:v>4370.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4620</c:v>
+                  <c:v>4620.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4870</c:v>
+                  <c:v>4870.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5120</c:v>
+                  <c:v>5120.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5370</c:v>
+                  <c:v>5370.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5620</c:v>
+                  <c:v>5620.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,21 +1291,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80793984"/>
-        <c:axId val="80795520"/>
+        <c:axId val="1791425456"/>
+        <c:axId val="-2058596656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80793984"/>
+        <c:axId val="1791425456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80795520"/>
+        <c:crossAx val="-2058596656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,18 +1313,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80795520"/>
+        <c:axId val="-2058596656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80793984"/>
+        <c:crossAx val="1791425456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1174,7 +1412,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1216,12 +1454,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1251,12 +1489,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1462,809 +1700,812 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>545</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>745</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>945</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1145</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1370</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1620</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15000</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1870</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16000</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>2120</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>2370</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18000</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>2620</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19000</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>2870</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>20000</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>3120</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21000</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>3370</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>22000</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>3620</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>23000</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>3870</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24000</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>4120</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>25000</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>4370</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26000</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>4620</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>27000</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>4870</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>28000</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>5120</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>29000</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>5370</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>30000</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>5620</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>31000</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>5870</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>32000</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>6120</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>33000</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>6370</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>34000</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>6620</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>35000</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>6870</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>36000</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>7120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>37000</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>7370</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>38000</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>7620</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>39000</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>7895</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>40000</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>8195</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>41000</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>8495</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>42000</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>8795</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>43000</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>9095</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>44000</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>9395</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>45000</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>9695</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>46000</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>9995</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>47000</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>10295</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>48000</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>10595</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>49000</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>10895</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>50000</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>11195</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>51000</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>11495</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>52000</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>11795</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>53000</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>12095</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>54000</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>12395</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>55000</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>12695</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>56000</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>12995</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>57000</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>13295</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>58000</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>13595</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>59000</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>13920</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>60000</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>14270</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>61000</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>14620</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>62000</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>14970</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>63000</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>15320</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>64000</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>15670</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>65000</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>16020</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>66000</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>16370</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>67000</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>16720</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>68000</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>17070</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>69000</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>17420</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>70000</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>17770</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>71000</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>18120</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>72000</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>18470</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>73000</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>18820</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>74000</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>19170</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>75000</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>19520</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>76000</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>19870</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>77000</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>20220</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>78000</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>20570</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>79000</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>20920</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>80000</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>21270</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>81000</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>21620</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>82000</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>21970</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>83000</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>22320</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>84000</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>22720</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>85000</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>23170</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>86000</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>23620</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>87000</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>24070</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>88000</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>24520</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>89000</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>24970</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>90000</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>25420</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>91000</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>25870</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>92000</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>26320</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>93000</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>26770</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>94000</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>27220</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>95000</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>27670</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>96000</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>28120</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>97000</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>28570</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>98000</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>29020</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>99000</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>29470</v>
       </c>
     </row>
@@ -2277,12 +2518,435 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="8.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="14"/>
+    <col min="15" max="15" width="8.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <f>C3/10000</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>36000</v>
+      </c>
+      <c r="F3" s="7">
+        <f>E3/10000</f>
+        <v>3.6</v>
+      </c>
+      <c r="G3" s="7">
+        <f>(E3-C3)/10000</f>
+        <v>3.6</v>
+      </c>
+      <c r="H3" s="8">
+        <f>C3/12</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <f>H3/10000</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <f>E3/12</f>
+        <v>3000</v>
+      </c>
+      <c r="K3" s="9">
+        <f>J3/10000</f>
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="9">
+        <f>(J3-H3)/10000</f>
+        <v>0.3</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="N3" s="11">
+        <f>L3*10000*M3</f>
+        <v>90</v>
+      </c>
+      <c r="O3" s="11">
+        <f>SUM(N$3:N3)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <f>E3</f>
+        <v>36000</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:F9" si="0">C4/10000</f>
+        <v>3.6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>144000</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G8" si="1">(E4-C4)/10000</f>
+        <v>10.8</v>
+      </c>
+      <c r="H4" s="8">
+        <f>C4/12</f>
+        <v>3000</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I9" si="2">H4/10000</f>
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="8">
+        <f>E4/12</f>
+        <v>12000</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K9" si="3">J4/10000</f>
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" ref="L4:L8" si="4">(J4-H4)/10000</f>
+        <v>0.9</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="11">
+        <f>L4*10000*M4</f>
+        <v>900</v>
+      </c>
+      <c r="O4" s="11">
+        <f>SUM(N$3:N4)</f>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <f>E4</f>
+        <v>144000</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" ref="H5:H9" si="5">C5/12</f>
+        <v>12000</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" ref="J5:J9" si="6">E5/12</f>
+        <v>25000</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" ref="N5:N8" si="7">L5*10000*M5</f>
+        <v>2600</v>
+      </c>
+      <c r="O5" s="11">
+        <f>SUM(N$3:N5)</f>
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:C9" si="8">E5</f>
+        <v>300000</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
+        <v>420000</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="5"/>
+        <v>25000</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="6"/>
+        <v>35000</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="7"/>
+        <v>2500</v>
+      </c>
+      <c r="O6" s="11">
+        <f>SUM(N$3:N6)</f>
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="8"/>
+        <v>420000</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E7" s="6">
+        <v>660000</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="5"/>
+        <v>35000</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="6"/>
+        <v>55000</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
+      <c r="O7" s="11">
+        <f>SUM(N$3:N7)</f>
+        <v>12090</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="8"/>
+        <v>660000</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E8" s="6">
+        <v>960000</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="5"/>
+        <v>55000</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="6"/>
+        <v>80000</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="7"/>
+        <v>8750</v>
+      </c>
+      <c r="O8" s="11">
+        <f>SUM(N$3:N8)</f>
+        <v>20840</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="8"/>
+        <v>960000</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8">
+        <f t="shared" si="5"/>
+        <v>80000</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2294,7 +2958,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
